--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-509160.0952751978</v>
+        <v>-511797.050892721</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>146.8775808763644</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>361.2055266121245</v>
+        <v>273.3306908573027</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>131.6447614400814</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>99.44282276629281</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>244.0127501404759</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>105.7597831230731</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>169.4049894968281</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>230.8127283073653</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>21.5362783633988</v>
+        <v>187.8503943199729</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>110.636534872944</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>84.33212806963466</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>101.6969570046987</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389036</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>71.79687029691044</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>182.6203814511592</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>48.47457675531665</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>80.10107535865886</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>138.5468473585367</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>78.58522891595203</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>29.95900124023845</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>79.75167225698492</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,7 +2959,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4811715458537</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>70.38407275859021</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>94.30373791808189</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3481,10 +3481,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>107.3363007608859</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545303</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1550.959102576163</v>
+        <v>861.6743869371094</v>
       </c>
       <c r="C2" t="n">
-        <v>1181.996585635751</v>
+        <v>861.6743869371094</v>
       </c>
       <c r="D2" t="n">
-        <v>1181.996585635751</v>
+        <v>503.4086883303589</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2289.278928122217</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2289.278928122217</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2289.278928122217</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.278928122217</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="X2" t="n">
-        <v>1915.813169861137</v>
+        <v>1524.365833927799</v>
       </c>
       <c r="Y2" t="n">
-        <v>1550.959102576163</v>
+        <v>1248.274227001231</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>479.8501387075399</v>
+        <v>741.3618240796766</v>
       </c>
       <c r="C4" t="n">
-        <v>346.8756322024072</v>
+        <v>572.4256411517697</v>
       </c>
       <c r="D4" t="n">
-        <v>346.8756322024072</v>
+        <v>572.4256411517697</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V4" t="n">
-        <v>990.0598878880306</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W4" t="n">
-        <v>700.6427178510701</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="X4" t="n">
-        <v>700.6427178510701</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="Y4" t="n">
-        <v>479.8501387075399</v>
+        <v>741.3618240796766</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1957.346298904865</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="C5" t="n">
-        <v>1588.383781964454</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="D5" t="n">
-        <v>1230.118083357703</v>
+        <v>768.4960607092896</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>382.7078081110454</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>375.7623073618419</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>364.0979611265349</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4565,16 +4565,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4598,19 +4598,19 @@
         <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2330.812057165945</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>2330.812057165945</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>1957.346298904865</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="Y5" t="n">
-        <v>1957.346298904865</v>
+        <v>1126.76175931604</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4647,19 +4647,19 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100997</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.0018823909471</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>666.0018823909471</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>515.8852429786114</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962183</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
         <v>51.2467865680031</v>
@@ -4723,7 +4723,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,10 +4738,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1465.3299690676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1465.3299690676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1176.211631571438</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1176.211631571438</v>
+        <v>1403.301950067057</v>
       </c>
       <c r="W7" t="n">
-        <v>886.7944615344773</v>
+        <v>1113.884780030097</v>
       </c>
       <c r="X7" t="n">
-        <v>886.7944615344773</v>
+        <v>885.8952291320793</v>
       </c>
       <c r="Y7" t="n">
-        <v>666.0018823909471</v>
+        <v>665.1026499885492</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>781.4578466818732</v>
+        <v>1067.6853146838</v>
       </c>
       <c r="C8" t="n">
-        <v>759.7040301531875</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D8" t="n">
-        <v>759.7040301531875</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E8" t="n">
-        <v>373.9157775549433</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057398</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.831592188879</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W8" t="n">
-        <v>1545.062936918765</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X8" t="n">
-        <v>1171.597178657685</v>
+        <v>1457.824646659611</v>
       </c>
       <c r="Y8" t="n">
-        <v>781.4578466818732</v>
+        <v>1067.6853146838</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>520.4109910936369</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>815.1145481251085</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1178.376567084329</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681274</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>662.7751904765219</v>
+        <v>479.8501387075395</v>
       </c>
       <c r="C10" t="n">
-        <v>662.7751904765219</v>
+        <v>310.9139557796326</v>
       </c>
       <c r="D10" t="n">
-        <v>662.7751904765219</v>
+        <v>310.9139557796326</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941287</v>
+        <v>163.0008621972395</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234358</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1439.817372234358</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V10" t="n">
-        <v>1354.633404487252</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W10" t="n">
-        <v>1065.216234450292</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="X10" t="n">
-        <v>1065.216234450292</v>
+        <v>700.6427178510696</v>
       </c>
       <c r="Y10" t="n">
-        <v>844.4236553067616</v>
+        <v>479.8501387075395</v>
       </c>
     </row>
     <row r="11">
@@ -5030,31 +5030,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400728</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400728</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>363.736961327737</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138427</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703125</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,7 +5288,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>175.8744207939068</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.5007694647281</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C16" t="n">
-        <v>631.5645865368213</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D16" t="n">
-        <v>481.4479471244855</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>333.5348535420924</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>333.5348535420924</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3387542569723</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>166.3387542569723</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438498</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1492342949679</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459582</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C19" t="n">
-        <v>599.6019060180513</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>341.9229394630504</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>341.9229394630504</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>174.7268401779303</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>174.7268401779303</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761979</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.913349582082</v>
+        <v>1548.439543391538</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.496179545122</v>
+        <v>1259.022373354577</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5066286471044</v>
+        <v>1031.03282245656</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,25 +6069,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,31 +6221,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,55 +6358,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>870.3164745246296</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>701.3802915967227</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D28" t="n">
-        <v>551.263652184387</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>403.3505586019938</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>256.4606111040835</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6421,13 +6421,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.747069396417</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.757518498399</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.964939354869</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6546,22 +6546,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>835.5837926935558</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C31" t="n">
-        <v>835.5837926935558</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>685.46715328122</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>537.5540596988269</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1755.431557602304</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1466.014387565343</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X31" t="n">
-        <v>1238.024836667326</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y31" t="n">
-        <v>1017.232257523796</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>335.9629114732377</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>189.0729639753273</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,10 +6944,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7129,16 +7129,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1755.431557602304</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
@@ -7330,28 +7330,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,7 +7360,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7369,10 +7369,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,13 +7786,13 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>240.4465442417433</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>186.5911984019044</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>224.3355197601774</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>27.70174406777319</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>59.78060410386933</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>112.9072477987509</v>
       </c>
     </row>
     <row r="3">
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>35.60205965854647</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>44.73700564187051</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9.468966021655078</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012336</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>103.9026168854318</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-3.513749910243533e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>100.1408962628957</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>1.164760959906673</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>113.5907959652913</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>139.9994244361428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>137.2878198583894</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>85.77246603528393</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>11.93987647707755</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24883,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>216.1389255780008</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>71.22040037418695</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>142.4141550350972</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25369,10 +25369,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>179.1866975757051</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-1.008970684779342e-12</v>
+        <v>-9.805489753489383e-13</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -26326,16 +26326,16 @@
         <v>262322.6448992519</v>
       </c>
       <c r="G2" t="n">
+        <v>262322.6448992519</v>
+      </c>
+      <c r="H2" t="n">
         <v>262322.644899252</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>262322.644899252</v>
+      </c>
+      <c r="J2" t="n">
         <v>262322.6448992519</v>
-      </c>
-      <c r="I2" t="n">
-        <v>262322.6448992521</v>
-      </c>
-      <c r="J2" t="n">
-        <v>262322.644899252</v>
       </c>
       <c r="K2" t="n">
         <v>262322.644899252</v>
@@ -26350,10 +26350,10 @@
         <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058923</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363194</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66766.26289939569</v>
+        <v>66766.2628993957</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719674</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
@@ -26451,10 +26451,10 @@
         <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481315</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481316</v>
+        <v>15498.22772481317</v>
       </c>
       <c r="P4" t="n">
         <v>15498.22772481314</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1045396.175139262</v>
+        <v>-1045686.782304107</v>
       </c>
       <c r="C6" t="n">
-        <v>40786.93921930302</v>
+        <v>40786.93921930305</v>
       </c>
       <c r="D6" t="n">
-        <v>40786.93921930308</v>
+        <v>40786.93921930305</v>
       </c>
       <c r="E6" t="n">
-        <v>-353792.6950109208</v>
+        <v>-353827.4329363564</v>
       </c>
       <c r="F6" t="n">
-        <v>153692.7466136251</v>
+        <v>153658.0086881894</v>
       </c>
       <c r="G6" t="n">
-        <v>153692.7466136254</v>
+        <v>153658.0086881894</v>
       </c>
       <c r="H6" t="n">
-        <v>153692.7466136251</v>
+        <v>153658.0086881896</v>
       </c>
       <c r="I6" t="n">
-        <v>153692.7466136253</v>
+        <v>153658.0086881895</v>
       </c>
       <c r="J6" t="n">
-        <v>-13912.43119635733</v>
+        <v>-13947.16912179328</v>
       </c>
       <c r="K6" t="n">
-        <v>153692.7466136252</v>
+        <v>153658.0086881897</v>
       </c>
       <c r="L6" t="n">
-        <v>153692.7466136251</v>
+        <v>153658.0086881893</v>
       </c>
       <c r="M6" t="n">
-        <v>21085.45288469855</v>
+        <v>21050.71495926297</v>
       </c>
       <c r="N6" t="n">
-        <v>128748.5136335319</v>
+        <v>128748.513633532</v>
       </c>
       <c r="O6" t="n">
-        <v>148176.2316271635</v>
+        <v>148176.2316271636</v>
       </c>
       <c r="P6" t="n">
-        <v>148176.2316271636</v>
+        <v>148176.2316271638</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,10 +26802,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,19 +26981,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>337.5711477032344</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>25.03241204392913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>46.99113988027636</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>57.00580242192945</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,13 +27670,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>221.9924753470618</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,22 +27822,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>25.25747086490935</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>21.32491501646271</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>343.7366134076087</v>
+        <v>177.4224974510347</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>34.78451314998723</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>167.8055152541933</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>669.5976799347666</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>220.7280629601519</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32555,7 +32555,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>194.5189324111251</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33734,10 +33734,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>284.1014732918236</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,22 +33974,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>536.3866168795493</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>386.7287743289959</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>575.8712262378664</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>553.5225306839449</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,10 +35030,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>410.9230160036622</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35264,13 +35264,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>527.4636460127483</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>82.88662398579289</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35893,7 +35893,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>55.9645526312509</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36437,7 +36437,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>263.67989750701</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,19 +37625,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>405.044904796216</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37710,10 +37710,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>244.1325298845514</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
